--- a/biology/Botanique/Frêne/Frêne.xlsx
+++ b/biology/Botanique/Frêne/Frêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraxinus
 Le Frêne, arbre du genre Fraxinus, appartient à la famille des Oléacées ; une soixantaine d'espèces de frênes sont connues, elles vivent essentiellement dans les forêts tempérées. Caractérisées par des feuilles composées pennées, elles sont reconnaissables à leurs grappes de samares simples surnommées localement « langues d'oiseau ».
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot frêne est issu du latin fraxinus, de même sens.
-Le nom latin semble apparenté à celui qui désigne le « bouleau » dans d'autres langues indo-européennes (sanskrit bhūrjáḥ, russe берёза/berjóza, anglais birch), ce qui peut s'expliquer par la couleur claire de l'écorce. Le suffixe *-sen- du mot latin pourrait être dû à l'influence du nom indo-européen du frêne (*ōs-, dialectal *ōsen-, cf. russe я́сень/jáseń, lituanien úosis), qui a donné en latin celui de l'orne (ornus), une variété de frêne[1].
-Le nom du frêne est à l'origine de nombreux patronymes (Fresnay, Frenoy, Fresnoy, Dufrêne, Fressonnet, Fressinnet, Dufraisse, Frassati, etc.)[2] et toponymes : Fresne[s] (21 communes), Fresnay (8 communes), Fresney (3 communes), Fresnoy (12 communes) ; dans le Midi Fraisse[s] (5 communes), Fraissinet (2 communes), Frayssinet (2 communes), etc.[3]. En Gascogne, les noms Réchou ou Rachou proviennent du nom de l'arbre lo hreisho, le f passant à h en gascon.
+Le nom latin semble apparenté à celui qui désigne le « bouleau » dans d'autres langues indo-européennes (sanskrit bhūrjáḥ, russe берёза/berjóza, anglais birch), ce qui peut s'expliquer par la couleur claire de l'écorce. Le suffixe *-sen- du mot latin pourrait être dû à l'influence du nom indo-européen du frêne (*ōs-, dialectal *ōsen-, cf. russe я́сень/jáseń, lituanien úosis), qui a donné en latin celui de l'orne (ornus), une variété de frêne.
+Le nom du frêne est à l'origine de nombreux patronymes (Fresnay, Frenoy, Fresnoy, Dufrêne, Fressonnet, Fressinnet, Dufraisse, Frassati, etc.) et toponymes : Fresne[s] (21 communes), Fresnay (8 communes), Fresney (3 communes), Fresnoy (12 communes) ; dans le Midi Fraisse[s] (5 communes), Fraissinet (2 communes), Frayssinet (2 communes), etc.. En Gascogne, les noms Réchou ou Rachou proviennent du nom de l'arbre lo hreisho, le f passant à h en gascon.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fraxinus americana L. — Frêne blanc ou Frêne d'Amérique
@@ -589,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,9 +623,11 @@
           <t>Génomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que les frênes sont décimés dans l'hémisphère nord, par un champignon (Hymenoscyphus fraxineus) en Europe et par le coléoptère Agrilus planipennis en Amérique du Nord, on cherche à mieux comprendre sa génétique et rechercher des marqueurs génétiques de résistance au champignon qui le décime[4] ; par exemple une étude récente (2016) a montré que les spécimens résistants seraient plus nombreux en Grande-Bretagne qu'au Danemark et que la susceptibilité des arbres au pathogène H. fraxineus est associée à leurs niveaux d'un glycoside (iridoïde)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que les frênes sont décimés dans l'hémisphère nord, par un champignon (Hymenoscyphus fraxineus) en Europe et par le coléoptère Agrilus planipennis en Amérique du Nord, on cherche à mieux comprendre sa génétique et rechercher des marqueurs génétiques de résistance au champignon qui le décime ; par exemple une étude récente (2016) a montré que les spécimens résistants seraient plus nombreux en Grande-Bretagne qu'au Danemark et que la susceptibilité des arbres au pathogène H. fraxineus est associée à leurs niveaux d'un glycoside (iridoïde).
 </t>
         </is>
       </c>
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,13 +656,15 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le frêne est un bois dur. Il est employé pour fabriquer un parquet solide mais un peu trop uniforme de couleur pour le goût du jour. Exploité en trogne (poitevin-saintongeais : têtard), c'est le bois des manches : pelles, haches, pioches, etc., ainsi que des arcs, car flexible et résistant aux vibrations. Ce bois est également utilisé pour la fabrication des cercles à fromage, pouvant prendre une forme arrondie et la garder même après plusieurs utilisations car il est très « nerveux ». En carrosserie automobile, et jusque dans les années 1950, il était utilisé pour construire les structures de carrosserie avant l’avènement des carrosseries tout acier.
 Là aussi, exploité en trogne dans le Massif central et dans l'Ouest de la France, lors des étés secs, les paysans récoltent le feuillage pour nourrir les ruminants. Comme c'était aussi un arbre de haie ou d'ombre près des points d'eau, il suffisait souvent d'abattre des branches pour que les animaux se servent.
-Les feuilles de frêne contiennent des iridoïdes, des coumarines (notamment le fraxoside, anti-inflammatoire et analgésique), des flavonoïdes, des polyphénols, des triterpènes, des mucilages et des tanins.[réf. nécessaire] Elles entrent dans la composition de tisanes, dont celle dite « du centenaire » qui peut être consommée tout au long de la vie sans contre-indication et agit contre les douleurs articulaires[5] et des maladies comme la goutte[réf. nécessaire]. Traditionnellement, on l'utilise également comme adjuvant minceur et pour drainer les reins et évacuer les lithiases.[réf. nécessaire]
+Les feuilles de frêne contiennent des iridoïdes, des coumarines (notamment le fraxoside, anti-inflammatoire et analgésique), des flavonoïdes, des polyphénols, des triterpènes, des mucilages et des tanins.[réf. nécessaire] Elles entrent dans la composition de tisanes, dont celle dite « du centenaire » qui peut être consommée tout au long de la vie sans contre-indication et agit contre les douleurs articulaires et des maladies comme la goutte[réf. nécessaire]. Traditionnellement, on l'utilise également comme adjuvant minceur et pour drainer les reins et évacuer les lithiases.[réf. nécessaire]
 De la frênette, boisson fraîche et pétillante, était fabriquée dans des familles angevines, jusque dans les années 1960. Les feuilles étaient séchées puis mises en tisane. On ajoutait sucre et levure de boulanger. On laissait le tout quelque temps en barrique, puis on le mettait en bouteilles.
-Les samares de frênes sont parfois consommées, la plupart du temps marinées, en Amérique du Nord, en Asie et en Europe[6].
+Les samares de frênes sont parfois consommées, la plupart du temps marinées, en Amérique du Nord, en Asie et en Europe.
 </t>
         </is>
       </c>
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,25 +693,11 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs maladies se développent chez le frêne, probablement du fait des échanges commerciaux internationaux, et peut-être en raison d'une tendance au réchauffement climatique et à la culture de clones à diversité génétique plus faible.
-Insecte ravageur
-L'agrile du frêne (Agrilus planipennis), un coléoptère  asiatique de la famille des Buprestidae, accomplit une partie de son cycle vital dans le frêne. La larve vit sous l'écorce et se nourrit du phloème de l'arbre. La première mention en Amérique du Nord remonte à 2002. Depuis, il s'est répandu aux États-Unis, en Ontario et a atteint le Québec en 2008. Cet insecte ravageur et envahissant donne du fil à retordre aux gestionnaires des ressources naturelles et oblige à des abattages sanitaires.
-Acariens envahisseurs
-Des acariens tels que Aceria fraxinivora envahissent les rameaux florifères (fleurs mâles du frêne) ou parfois d'autres organes (bourgeons) qui réagissent par la formation d'excroissances induites par la piqûre de ces animaux gallicoles. Les galles « en chou-fleur » offrent ainsi des tissus végétaux nourriciers et protecteurs (le gîte et le couvert) à ce parasite. Cet acarien est « peu néfaste pour l'arbre, bien qu'il puisse entraîner une certaine mortalité des jeunes pousses et des déformations de la branche ; il est surtout jugé inesthétique par les paysagistes et fait alors parfois l'objet de traitements phytosanitaires[7]. »
-Traitement préventif
-Si le frêne ne montre aucun signe de dépérissement dû à l'agrile du frêne, il est possible de le traiter contre cet acarien avec un biopesticide. La ville de Montréal utilise le TreeAzin[8], un produit a faible toxicité pour les mammifères,
-les oiseaux et autres espèces sauvages[9] dont la matière active est dérivée du margousier, un arbre poussant naturellement en Inde et en Afrique de l'Est et utilisé depuis longtemps[Quand ?] pour ses propriétés insecticides.
-La chalarose
-Description
-Une autre maladie, émergente, est provoquée par un champignon exotique et invasif ; Chalara fraxinea, ascomycète isolé sur des brindilles et branches malades mais aussi au collet des arbres et sur la partie supérieure des racines maîtresses, responsable de la chalarose du frêne[10]. Cette maladie létale semble avoir émergé au début des années 1990 en Europe de l’Est et du Nord (d'abord repérée au début des années 1990 en Pologne). Le téléomorphe de cette espèce est Hymenoscyphus pseudoalbidus[11],[12]. Puis il a été montré que cet agent pathogène est très probablement d'origine asiatique où il a été détecté sur des frênes indigènes, F. mandshurica, et où la diversité génétique du pathogène est beaucoup plus élevée qu'en Europe[13].
-De 1990 à 2008, la maladie est repérée en Autriche[14],[15], Finlande, Allemagne[16], Hongrie[17], Lituanie, Norvège[18], Pologne[19], Suède et sur la base des symptômes, au Danemark[20], en Estonie, Lettonie et Suisse[21] et elle progresse vers l'Europe de l'Ouest, puisque détectée par l'Office national des forêts (ONF) de Vesoul en France à l’automne 2008 chez des peuplements malades dans plus de 80 communes de Haute-Saône[22].
-En Belgique, le Département de la nature et des forêts (DNF) et le laboratoire de mycologie du Centre de recherches agronomiques (CRA) de Gembloux assurent une veille sanitaire. Des experts craignent que ce champignon puisse aussi s’attaquer ensuite à d’autres essences. Il infecte l'arbre et provoque notamment le dessèchement puis la mort des rameaux de un ou deux ans (juste avant le débourrement ou durant les sécheresses estivales). La base des rameaux morts ou latéraux présente généralement d'abord des nécroses corticales (sans exsudats) qui s’étendent ensuite aux branches des couronnes (avec descente de cime). Des nécroses apparaissent aussi sur le tronc à l'intersection des gourmands infectés par C. fraxinea et à leur base pour former des faciès chancreux[23]. Le bois attaqué devient gris[24]. Un développement anarchique de pousses épicormiques est parfois constaté (à partir de bourgeons dormants).
-Dans les zones touchées par la maladie, les experts recommandent de ne transporter que du frêne bien sec[25]. On manque encore de données précises sur la pathogénicité de ce champignon, des causes qui facilitent l'infection du frêne (le gel et/ou les sécheresses pourraient le favoriser). En 2007, le frêne européen (Fraxinus excelsior) était touché, mais aucune donnée n'était disponible sur la sensibilité à ce parasite pour d'autres espèces de Fraxinus. Selon l'OEPP, les plants de pépinières et le transport de bois contaminé semblent expliquer la propagation de la maladie sur de longues distances[26]. La maladie est souvent chronique, et parfois mortelle pour l'arbre. Ces dépérissements ont été observés en forêt et sur leurs lisière notamment, mais aussi dans les haies, et en ville (parcs urbains et jardins) ou en pépinières.
-Résistance génétique chez certains frênes
-Une étude danoise (2007 à 2009, publiée en 2012[27]) a montré que selon les souches génétiques, le frêne est plus ou moins sensible à la chalarose; le degré de vulnérabilité des clones testés (une trentaine) lors de l'étude était fortement corrélé à la sénescence des feuilles en automne (plus précoce chez les clones plus sains). De façon générale, plusieurs études confirment qu'il existe de la variabilité génétique héritable dans la résistance à la maladie dans les populations de F. excelsior, allant des plus résistants (moins de 5 % de la population de frênes) aux très sensibles qui disparaitront rapidement[28],[29],[30]. La chalarose aura un impact économique majeur ainsi qu'un fort impact écologique sans toutefois remettre en cause la préservation de l'espèce.
-Voir des photos illustrant les symptômes visibles de cette maladie
 </t>
         </is>
       </c>
@@ -702,7 +708,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne</t>
+          <t>Frêne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -717,10 +723,210 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Insecte ravageur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agrile du frêne (Agrilus planipennis), un coléoptère  asiatique de la famille des Buprestidae, accomplit une partie de son cycle vital dans le frêne. La larve vit sous l'écorce et se nourrit du phloème de l'arbre. La première mention en Amérique du Nord remonte à 2002. Depuis, il s'est répandu aux États-Unis, en Ontario et a atteint le Québec en 2008. Cet insecte ravageur et envahissant donne du fil à retordre aux gestionnaires des ressources naturelles et oblige à des abattages sanitaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frêne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acariens envahisseurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des acariens tels que Aceria fraxinivora envahissent les rameaux florifères (fleurs mâles du frêne) ou parfois d'autres organes (bourgeons) qui réagissent par la formation d'excroissances induites par la piqûre de ces animaux gallicoles. Les galles « en chou-fleur » offrent ainsi des tissus végétaux nourriciers et protecteurs (le gîte et le couvert) à ce parasite. Cet acarien est « peu néfaste pour l'arbre, bien qu'il puisse entraîner une certaine mortalité des jeunes pousses et des déformations de la branche ; il est surtout jugé inesthétique par les paysagistes et fait alors parfois l'objet de traitements phytosanitaires. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frêne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traitement préventif</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le frêne ne montre aucun signe de dépérissement dû à l'agrile du frêne, il est possible de le traiter contre cet acarien avec un biopesticide. La ville de Montréal utilise le TreeAzin, un produit a faible toxicité pour les mammifères,
+les oiseaux et autres espèces sauvages dont la matière active est dérivée du margousier, un arbre poussant naturellement en Inde et en Afrique de l'Est et utilisé depuis longtemps[Quand ?] pour ses propriétés insecticides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Frêne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La chalarose</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre maladie, émergente, est provoquée par un champignon exotique et invasif ; Chalara fraxinea, ascomycète isolé sur des brindilles et branches malades mais aussi au collet des arbres et sur la partie supérieure des racines maîtresses, responsable de la chalarose du frêne. Cette maladie létale semble avoir émergé au début des années 1990 en Europe de l’Est et du Nord (d'abord repérée au début des années 1990 en Pologne). Le téléomorphe de cette espèce est Hymenoscyphus pseudoalbidus,. Puis il a été montré que cet agent pathogène est très probablement d'origine asiatique où il a été détecté sur des frênes indigènes, F. mandshurica, et où la diversité génétique du pathogène est beaucoup plus élevée qu'en Europe.
+De 1990 à 2008, la maladie est repérée en Autriche Finlande, Allemagne, Hongrie, Lituanie, Norvège, Pologne, Suède et sur la base des symptômes, au Danemark, en Estonie, Lettonie et Suisse et elle progresse vers l'Europe de l'Ouest, puisque détectée par l'Office national des forêts (ONF) de Vesoul en France à l’automne 2008 chez des peuplements malades dans plus de 80 communes de Haute-Saône.
+En Belgique, le Département de la nature et des forêts (DNF) et le laboratoire de mycologie du Centre de recherches agronomiques (CRA) de Gembloux assurent une veille sanitaire. Des experts craignent que ce champignon puisse aussi s’attaquer ensuite à d’autres essences. Il infecte l'arbre et provoque notamment le dessèchement puis la mort des rameaux de un ou deux ans (juste avant le débourrement ou durant les sécheresses estivales). La base des rameaux morts ou latéraux présente généralement d'abord des nécroses corticales (sans exsudats) qui s’étendent ensuite aux branches des couronnes (avec descente de cime). Des nécroses apparaissent aussi sur le tronc à l'intersection des gourmands infectés par C. fraxinea et à leur base pour former des faciès chancreux. Le bois attaqué devient gris. Un développement anarchique de pousses épicormiques est parfois constaté (à partir de bourgeons dormants).
+Dans les zones touchées par la maladie, les experts recommandent de ne transporter que du frêne bien sec. On manque encore de données précises sur la pathogénicité de ce champignon, des causes qui facilitent l'infection du frêne (le gel et/ou les sécheresses pourraient le favoriser). En 2007, le frêne européen (Fraxinus excelsior) était touché, mais aucune donnée n'était disponible sur la sensibilité à ce parasite pour d'autres espèces de Fraxinus. Selon l'OEPP, les plants de pépinières et le transport de bois contaminé semblent expliquer la propagation de la maladie sur de longues distances. La maladie est souvent chronique, et parfois mortelle pour l'arbre. Ces dépérissements ont été observés en forêt et sur leurs lisière notamment, mais aussi dans les haies, et en ville (parcs urbains et jardins) ou en pépinières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frêne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La chalarose</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Résistance génétique chez certains frênes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude danoise (2007 à 2009, publiée en 2012) a montré que selon les souches génétiques, le frêne est plus ou moins sensible à la chalarose; le degré de vulnérabilité des clones testés (une trentaine) lors de l'étude était fortement corrélé à la sénescence des feuilles en automne (plus précoce chez les clones plus sains). De façon générale, plusieurs études confirment qu'il existe de la variabilité génétique héritable dans la résistance à la maladie dans les populations de F. excelsior, allant des plus résistants (moins de 5 % de la population de frênes) aux très sensibles qui disparaitront rapidement. La chalarose aura un impact économique majeur ainsi qu'un fort impact écologique sans toutefois remettre en cause la préservation de l'espèce.
+Voir des photos illustrant les symptômes visibles de cette maladie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Frêne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Les papillons de nuit (hétérocères) suivants (classés par famille) se nourrissent de frênes, plantes hôtes de leur chenille :
 Xérampéline d'Hübner Atethmia centrago (Noctuidae).
@@ -745,39 +951,41 @@
 Zelleria hepariella
 Le frêne est aussi la plante hôte des chenilles des rhopalocères :
 Euphydryas maturna le damier du frêne.
-Laeosopis roboris la thècle (ou thécla) du frêne[31].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fr%C3%AAne</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Laeosopis roboris la thècle (ou thécla) du frêne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frêne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la mythologie nordique, Yggdrasil est un frêne.
 Dans le calendrier républicain français, le 29e jour du mois de ventôse, est officiellement dénommé jour du frêne.
-Le passage entre le massif des Bauges et la Combe de Savoie peut s'effectuer par le col du Frêne à 950 mètres d'altitude[32].
+Le passage entre le massif des Bauges et la Combe de Savoie peut s'effectuer par le col du Frêne à 950 mètres d'altitude.
 </t>
         </is>
       </c>
